--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>작성일</t>
   </si>
@@ -175,6 +175,18 @@
       <t xml:space="preserve"> 경기천년기념사업
 cf) 단위과제:단위과제세부사항=단위과제:단위과제명</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gar 브랜치에서 참고자료는 모두 reference 브랜치로 이동하고 삭제하는게 어떠신지?(김가영) </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1297,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1339,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:8">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1581,9 +1593,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="15">
         <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>181121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>작성일</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>완료</t>
-  </si>
-  <si>
-    <t>예정</t>
   </si>
   <si>
     <t>구분</t>
@@ -114,15 +111,6 @@
   </si>
   <si>
     <t>널 죽일 수만 있다면.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안 검토 요청(김가영~1123)
-- 본문에 대한 수정 or 수정이 어렵다면, 삭제가 필요한 부분은 표기 요청
-- 본문에 쓰인 용어 중, 운영 가이드의 용어정의와 일치여부 검토 요청
-초안 퇴고 진행예정(이상민~1126)
-- 3장의 내용 중심으로 전체적인 톤과 매너를 맞추는 수준으로
-- 필요 없다고 판단되는 내용은 부분적으로 계속해서 퇴고할 예정</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -186,7 +174,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">gar 브랜치에서 참고자료는 모두 reference 브랜치로 이동하고 삭제하는게 어떠신지?(김가영) </t>
+    <t>초안 검토 요청(김가영~1123)
+- 본문에 대한 수정 or 수정이 어렵다면, 삭제가 필요한 부분은 표기 요청
+- 본문에 쓰인 용어 중, 운영 가이드의 용어정의와 일치여부 검토 요청
+초안 퇴고 진행예정(이상민~1126)
+- 필요 없다고 판단되는 내용은 부분적으로 계속해서 퇴고 예정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git 자료명 정리(이상민)
+- 기초자료(김가영-&gt;ver 1.1); 기초자료(이상민-&gt;ver 1.0)
+브랜치 정리(김가영)
+- 참고자료는 모두 reference 브랜치로 이동
+- gar 브랜치에서 참고자료 삭제 검토 요청(김가영) </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1327,7 +1327,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1384,19 +1384,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33">
@@ -1410,19 +1410,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1436,10 +1436,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>9</v>
@@ -1457,19 +1457,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51.75" customHeight="1">
@@ -1483,10 +1483,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>9</v>
@@ -1504,13 +1504,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1525,13 +1525,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -1543,13 +1543,13 @@
         <v>181118</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1561,19 +1561,19 @@
         <v>181120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="99">
+    <row r="12" spans="1:8" ht="82.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1581,19 +1581,19 @@
         <v>181121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="82.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1601,16 +1601,16 @@
         <v>181121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="10755"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>작성일</t>
   </si>
@@ -182,11 +182,117 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 자료명 정리(이상민)
+    <t>O</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조사 및 연구 보고서의 성격을 고려하여, 운영 가이드 내용은 가급적 최종결론 중심으로(김가영)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 근거법령 중 규정집은 사무관리규정의 근거로서, 기록물관리에 대한 근거법령으로 보기 힘듬, 마찬가지로 재단의 설립 및 운영의 조례안도 삭제 검토 필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 데이터타입은 향후 이관 시에 고려해야 될 사항으로 보여짐. 작성이 필요하다면 조사 및 연구로 이동하는 방안 검토 필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 기록물철을 정리한 세 가지 표는 구분이 되도록 수정 필요?</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git 자료명 정리(이상민)
 - 기초자료(김가영-&gt;ver 1.1); 기초자료(이상민-&gt;ver 1.0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.0.hwp (from 빈 문서.hwp)
+라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.1.hwp (from 라키비움_기록물관리기준마련 위한 리서치.hwp)
+라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 2.0.hwp (from 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구.hwp)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 브랜치 정리(김가영)
 - 참고자료는 모두 reference 브랜치로 이동
 - gar 브랜치에서 참고자료 삭제 검토 요청(김가영) </t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +482,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1309,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1319,8 +1442,8 @@
     <col min="2" max="2" width="9" style="13"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="65.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6"/>
+    <col min="5" max="5" width="93.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="55.875" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
@@ -1551,49 +1674,58 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="165">
+    <row r="11" spans="1:8" ht="82.5">
       <c r="A11" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="13">
-        <v>181120</v>
+        <v>181121</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>29</v>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="82.5">
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="132">
       <c r="A12" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>181121</v>
+        <v>181120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="82.5">
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="181.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1607,10 +1739,13 @@
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1749,7 +1884,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"진행, 완료, 예정"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 H1:H1048576">
       <formula1>"김가영, 이상민"</formula1>
     </dataValidation>
   </dataValidations>

--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="10755"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>작성일</t>
   </si>
@@ -261,23 +261,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>김가영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>김가영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">git 자료명 정리(이상민)
 - 기초자료(김가영-&gt;ver 1.1); 기초자료(이상민-&gt;ver 1.0)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.0.hwp (from 빈 문서.hwp)
-라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.1.hwp (from 라키비움_기록물관리기준마련 위한 리서치.hwp)
-라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 2.0.hwp (from 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구.hwp)</t>
     </r>
     <r>
       <rPr>
@@ -288,11 +283,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-브랜치 정리(김가영)
+      <t xml:space="preserve">브랜치 정리(김가영)
 - 참고자료는 모두 reference 브랜치로 이동
 - gar 브랜치에서 참고자료 삭제 검토 요청(김가영) </t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 자료명 정리(김가영)
+- 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.0.hwp (from 빈 문서.hwp)
+- 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 1.1.hwp (from 라키비움_기록물관리기준마련 위한 리서치.hwp)
+- 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 2.0.hwp (from 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구.hwp)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,14 +492,6 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1430,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1444,7 +1437,7 @@
     <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="93.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="55.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1496,7 +1489,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="33">
+    <row r="3" spans="1:8">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1674,10 +1667,15 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="82.5">
       <c r="A11" s="15">
@@ -1696,10 +1694,13 @@
         <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="132">
@@ -1724,8 +1725,11 @@
       <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="181.5">
+      <c r="H12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="148.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1739,144 +1743,458 @@
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="15">
         <v>13</v>
       </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>14</v>
       </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="15">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="15">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="15">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="15">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="15">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="15">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="15">
         <v>38</v>
       </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="8:8">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="8:8">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="8:8">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="8:8">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="8:8">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="8:8">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="8:8">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="8:8">
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="8:8">
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="8:8">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="8:8">
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="8:8">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="8:8">
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="8:8">
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="8:8">
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="8:8">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="8:8">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="8:8">
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="8:8">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="8:8">
+      <c r="H134" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="10755"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>작성일</t>
   </si>
@@ -144,7 +144,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -155,7 +155,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -191,7 +191,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -202,7 +202,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -215,7 +215,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -226,7 +226,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -239,7 +239,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -250,7 +250,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -278,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -296,16 +296,25 @@
 - 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구_ver 2.0.hwp (from 라키비움_경기천년 기념사업의 기록관리 기준에 대한 조사 및 연구.hwp)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>삐돌이</t>
+  </si>
+  <si>
+    <t>삐졌네</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -313,7 +322,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -322,7 +331,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -331,7 +340,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -340,7 +349,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -349,7 +358,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -357,7 +366,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -365,7 +374,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -373,7 +382,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -381,7 +390,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -390,7 +399,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -399,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -407,7 +416,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -416,7 +425,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -424,7 +433,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -433,7 +442,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -442,7 +451,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -450,14 +459,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -465,7 +474,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -474,7 +483,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -483,7 +492,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -492,7 +501,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1135,6 +1144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1213,6 +1227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1247,6 +1262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1422,22 +1438,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="9" style="13"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="57.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1515,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1562,7 +1578,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="66">
+    <row r="6" spans="1:8" ht="75">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1677,7 +1693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="82.5">
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="15">
         <v>11</v>
       </c>
@@ -1703,7 +1719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="132">
+    <row r="12" spans="1:8" ht="135">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -1729,7 +1745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="148.5">
+    <row r="13" spans="1:8" ht="135">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1758,6 +1774,18 @@
     <row r="14" spans="1:8">
       <c r="A14" s="15">
         <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>181218</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/작업 코멘트.xlsx
+++ b/작업 코멘트.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="10755"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="24795" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="작업일지" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>작성일</t>
   </si>
@@ -144,7 +144,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -155,7 +155,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -191,7 +191,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -202,7 +202,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -215,7 +215,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -226,7 +226,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -239,7 +239,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -250,7 +250,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -278,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -305,16 +305,29 @@
   <si>
     <t>삐졌네</t>
   </si>
+  <si>
+    <t>김가영</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용수정사항</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한글파일 3.0 이후에는 Indesign 파일에서 수정중.
+3.0에 있는 내용이후에도 수정사항이 있음. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -322,7 +335,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -331,7 +344,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -340,7 +353,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -349,7 +362,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -358,7 +371,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -366,7 +379,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -374,7 +387,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -382,7 +395,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -390,7 +403,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -399,7 +412,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -408,7 +421,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -416,7 +429,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -425,7 +438,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -433,7 +446,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -442,7 +455,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -451,7 +464,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -459,14 +472,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -474,7 +487,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -483,7 +496,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -492,7 +505,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -501,7 +514,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1227,7 +1240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1262,7 +1274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1438,22 +1449,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="9" style="13"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="57.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="57.375" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1531,7 +1542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="33">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1578,7 +1589,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="75">
+    <row r="6" spans="1:8" ht="66">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75">
+    <row r="11" spans="1:8" ht="82.5">
       <c r="A11" s="15">
         <v>11</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="135">
+    <row r="12" spans="1:8" ht="132">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -1745,7 +1756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="135">
+    <row r="13" spans="1:8" ht="148.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1787,11 +1798,28 @@
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33">
       <c r="A15" s="15">
         <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>181221</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H15" s="6"/>
     </row>
